--- a/scene_cat_exp_2023.2.2_english/input_files/59_scenecat_block_order.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/59_scenecat_block_order.xlsx
@@ -360,12 +360,12 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>bedrooms_1</t>
+          <t>living_rooms_1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>living_rooms_1</t>
+          <t>bedrooms_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -403,7 +403,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -417,16 +417,16 @@
         <v>0</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -434,13 +434,13 @@
         <v>0</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -451,19 +451,19 @@
     </row>
     <row r="5">
       <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -486,12 +486,12 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
